--- a/Documentation/6 ANOVA.xlsx
+++ b/Documentation/6 ANOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HeadCenter\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D5404-5007-4568-92FA-8556E2D8DCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D02DC31-8BDA-44DB-830B-1C7D20956943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Type 1</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>Federica</t>
+  </si>
+  <si>
+    <t>Fabiola</t>
+  </si>
+  <si>
+    <t>Pieor</t>
+  </si>
+  <si>
+    <t>Version tried first</t>
   </si>
 </sst>
 </file>
@@ -313,15 +322,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -332,8 +341,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -345,7 +357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.15</v>
       </c>
@@ -357,7 +369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -369,7 +381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>8.4027777777777771E-2</v>
       </c>
@@ -381,7 +393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.1173611111111111</v>
       </c>
@@ -393,7 +405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.10069444444444443</v>
       </c>
@@ -405,7 +417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7.1527777777777773E-2</v>
       </c>
@@ -414,6 +426,37 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>5.1388888888888887E-2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/6 ANOVA.xlsx
+++ b/Documentation/6 ANOVA.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HeadCenter\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D02DC31-8BDA-44DB-830B-1C7D20956943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19992" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Type 1</t>
   </si>
@@ -59,12 +53,15 @@
   </si>
   <si>
     <t>Version tried first</t>
+  </si>
+  <si>
+    <t>Dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -318,19 +315,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -345,7 +342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -357,7 +354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0.15</v>
       </c>
@@ -369,7 +366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -381,7 +378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>8.4027777777777771E-2</v>
       </c>
@@ -393,7 +390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.3" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>0.1173611111111111</v>
       </c>
@@ -405,7 +402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0.10069444444444443</v>
       </c>
@@ -417,7 +414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>7.1527777777777773E-2</v>
       </c>
@@ -431,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0.1111111111111111</v>
       </c>
@@ -445,7 +442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5.1388888888888887E-2</v>
       </c>
@@ -456,6 +453,20 @@
         <v>11</v>
       </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
     </row>

--- a/Documentation/6 ANOVA.xlsx
+++ b/Documentation/6 ANOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HeadCenter\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3556B9-8558-4144-8803-866F280E5E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE643D8A-E17C-41CE-8907-C0CC07433E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,48 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Type 1</t>
   </si>
   <si>
     <t>Type 2</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Massimo</t>
-  </si>
-  <si>
-    <t>Ilaria</t>
-  </si>
-  <si>
-    <t>Michela</t>
-  </si>
-  <si>
-    <t>Paola</t>
-  </si>
-  <si>
-    <t>Ester</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Federica</t>
-  </si>
-  <si>
-    <t>Fabiola</t>
-  </si>
-  <si>
-    <t>Version tried first</t>
-  </si>
-  <si>
-    <t>Dias</t>
-  </si>
-  <si>
-    <t>Piero</t>
   </si>
   <si>
     <t>Analisi varianza: ad un fattore</t>
@@ -213,14 +177,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -439,10 +403,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H28" sqref="A13:H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -458,293 +422,257 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>216</v>
+      </c>
+      <c r="B3" s="3">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>120</v>
+      </c>
+      <c r="B4" s="3">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>121</v>
+      </c>
+      <c r="B5" s="3">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>169</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>145</v>
+      </c>
+      <c r="B7" s="4">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>160</v>
+      </c>
+      <c r="B9" s="4">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>93</v>
+      </c>
+      <c r="B10" s="4">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>127</v>
+      </c>
+      <c r="B11" s="4">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1355</v>
+      </c>
+      <c r="D17" s="5">
+        <v>135.5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1429.8333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>944</v>
+      </c>
+      <c r="D18" s="6">
+        <v>94.4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>281.37777777777711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>96</v>
-      </c>
-      <c r="B2" s="6">
-        <v>101</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>216</v>
-      </c>
-      <c r="B3" s="6">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>120</v>
-      </c>
-      <c r="B4" s="6">
-        <v>108</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>121</v>
-      </c>
-      <c r="B5" s="6">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>169</v>
-      </c>
-      <c r="B6" s="6">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>145</v>
-      </c>
-      <c r="B7" s="7">
-        <v>109</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>103</v>
-      </c>
-      <c r="B8" s="7">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8446.0500000000011</v>
+      </c>
+      <c r="C23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>160</v>
-      </c>
-      <c r="B9" s="7">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>74</v>
-      </c>
-      <c r="B10" s="7">
-        <v>93</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>78</v>
-      </c>
-      <c r="B11" s="7">
-        <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D23" s="5">
+        <v>8446.0500000000011</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9.8714295917771064</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5.6377855251643219E-3</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4.4138734191705664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="B24" s="5">
+        <v>15400.9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5">
+        <v>855.6055555555555</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1282</v>
-      </c>
-      <c r="D18" s="2">
-        <v>128.19999999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1990.6222222222229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1017</v>
-      </c>
-      <c r="D19" s="3">
-        <v>101.7</v>
-      </c>
-      <c r="E19" s="3">
-        <v>268.90000000000066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3511.2500000000036</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3511.2500000000036</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3.1079579262085923</v>
-      </c>
-      <c r="F24" s="2">
-        <v>9.4880169810354395E-2</v>
-      </c>
-      <c r="G24" s="2">
-        <v>4.4138734191705664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2">
-        <v>20335.699999999997</v>
-      </c>
-      <c r="C25" s="2">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1129.7611111111109</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="B26" s="6">
         <v>23846.95</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C26" s="6">
         <v>19</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
